--- a/代码行数统计.xlsx
+++ b/代码行数统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053AF12D-26BD-4454-85C2-E41E03D23957}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89F7E01-A2A2-410F-BEEF-7EB7853B36FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -467,6 +467,32 @@
         <v>1125</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43361</v>
+      </c>
+      <c r="B4">
+        <v>55403</v>
+      </c>
+      <c r="C4">
+        <v>18844</v>
+      </c>
+      <c r="D4">
+        <v>13028</v>
+      </c>
+      <c r="E4">
+        <v>18141</v>
+      </c>
+      <c r="F4">
+        <v>1012</v>
+      </c>
+      <c r="G4">
+        <v>787</v>
+      </c>
+      <c r="H4">
+        <v>1125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/代码行数统计.xlsx
+++ b/代码行数统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89F7E01-A2A2-410F-BEEF-7EB7853B36FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4C460F-DA15-4E18-AC1E-BBB7DB72EB22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -493,6 +493,32 @@
         <v>1125</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43362</v>
+      </c>
+      <c r="B5">
+        <v>55785</v>
+      </c>
+      <c r="C5">
+        <v>18983</v>
+      </c>
+      <c r="D5">
+        <v>12556</v>
+      </c>
+      <c r="E5">
+        <v>133479</v>
+      </c>
+      <c r="F5">
+        <v>1045</v>
+      </c>
+      <c r="G5">
+        <v>3703</v>
+      </c>
+      <c r="H5">
+        <v>1300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/代码行数统计.xlsx
+++ b/代码行数统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4C460F-DA15-4E18-AC1E-BBB7DB72EB22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5136535A-6A14-4A56-9E88-D86629245E68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -389,7 +389,7 @@
     <col min="2" max="2" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43357</v>
       </c>
@@ -441,7 +441,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43360</v>
       </c>
@@ -467,7 +467,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43361</v>
       </c>
@@ -493,7 +493,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43362</v>
       </c>
@@ -517,6 +517,36 @@
       </c>
       <c r="H5">
         <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43363</v>
+      </c>
+      <c r="B6">
+        <v>55992</v>
+      </c>
+      <c r="C6">
+        <v>19089</v>
+      </c>
+      <c r="D6">
+        <v>13295</v>
+      </c>
+      <c r="E6">
+        <v>134030</v>
+      </c>
+      <c r="F6">
+        <v>1079</v>
+      </c>
+      <c r="G6">
+        <v>3703</v>
+      </c>
+      <c r="H6">
+        <v>1300</v>
+      </c>
+      <c r="I6">
+        <f>SUM(B6:H6)</f>
+        <v>228488</v>
       </c>
     </row>
   </sheetData>
